--- a/Input/IRQ_2021HNO_Inter-sectoral_PIN-Severity_ICCG-ENDORSED.xlsx
+++ b/Input/IRQ_2021HNO_Inter-sectoral_PIN-Severity_ICCG-ENDORSED.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\OneDrive\Documents\REACH2020\MCNA VIII\MCNA20_Analysis_IRQ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\OneDrive\Documents\REACH2020\MCNA VIII\MCNA20_Analysis_IRQ\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6FC89E7D-B808-42C4-BF76-155C138010AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{390FF4AB-7C72-4A88-98FE-3E8ABB79ECCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25320" yWindow="480" windowWidth="25440" windowHeight="15390" xr2:uid="{7DE93082-DA25-4047-BA9C-ECE0BEA4BEF8}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="239">
   <si>
     <t>JIAF Categorization</t>
   </si>
@@ -761,6 +761,33 @@
   </si>
   <si>
     <t>s_26</t>
+  </si>
+  <si>
+    <t>NA: in-camp households that don't have access to a private or shared watertank</t>
+  </si>
+  <si>
+    <t>NA: water source "other"</t>
+  </si>
+  <si>
+    <t>Should be fine</t>
+  </si>
+  <si>
+    <t>No Nas</t>
+  </si>
+  <si>
+    <t>No children in the household</t>
+  </si>
+  <si>
+    <t>NA: question not asked to IDPs in camp</t>
+  </si>
+  <si>
+    <t>No NAs</t>
+  </si>
+  <si>
+    <t>NA: feel_unsafe == don't know</t>
+  </si>
+  <si>
+    <t>NA: food expenditure was higher than total expenditure</t>
   </si>
 </sst>
 </file>
@@ -966,7 +993,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="24">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1105,8 +1132,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="52">
+  <borders count="73">
     <border>
       <left/>
       <right/>
@@ -1465,6 +1498,166 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14990691854609822"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14990691854609822"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14990691854609822"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14990691854609822"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14990691854609822"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14990691854609822"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14990691854609822"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14990691854609822"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14990691854609822"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14990691854609822"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color theme="2"/>
       </left>
@@ -1474,27 +1667,67 @@
       <top style="thin">
         <color theme="2"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color theme="0" tint="-0.14993743705557422"/>
+        <color theme="0"/>
       </right>
       <top style="thin">
-        <color theme="0" tint="-0.14993743705557422"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1504,11 +1737,11 @@
       <right style="thin">
         <color theme="0" tint="-0.14990691854609822"/>
       </right>
-      <top style="thin">
-        <color theme="0" tint="-0.14990691854609822"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.14990691854609822"/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1518,204 +1751,6 @@
       </left>
       <right style="medium">
         <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.14990691854609822"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.14990691854609822"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.14990691854609822"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.14990691854609822"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.14990691854609822"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.14993743705557422"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.14993743705557422"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.14993743705557422"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.14993743705557422"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.14993743705557422"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.14993743705557422"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.14993743705557422"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.14993743705557422"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.14993743705557422"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="2"/>
-      </left>
-      <right style="thin">
-        <color theme="2"/>
-      </right>
-      <top style="thin">
-        <color theme="2"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="2"/>
-      </left>
-      <right style="thin">
-        <color theme="2"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
@@ -1735,8 +1770,8 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14990691854609822"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1750,8 +1785,8 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14990691854609822"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1762,11 +1797,11 @@
       <right style="thin">
         <color theme="0" tint="-0.14990691854609822"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
+      <top style="thin">
         <color theme="0" tint="-0.14990691854609822"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1777,11 +1812,37 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14990691854609822"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.14990691854609822"/>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1789,14 +1850,12 @@
       <left style="thin">
         <color theme="0" tint="-0.14990691854609822"/>
       </left>
-      <right style="thin">
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color theme="0" tint="-0.14990691854609822"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.14990691854609822"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1804,14 +1863,239 @@
       <left style="thin">
         <color theme="0" tint="-0.14990691854609822"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color theme="0" tint="-0.14990691854609822"/>
       </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14990691854609822"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14990691854609822"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14990691854609822"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14990691854609822"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14990691854609822"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14990691854609822"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14990691854609822"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14990691854609822"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14990691854609822"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14990691854609822"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14990691854609822"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14990691854609822"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14990691854609822"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1820,7 +2104,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="170">
+  <cellXfs count="195">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1906,25 +2190,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1933,19 +2211,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1954,22 +2226,16 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2053,13 +2319,13 @@
     <xf numFmtId="9" fontId="5" fillId="17" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="17" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="17" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="17" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2074,82 +2340,73 @@
     <xf numFmtId="0" fontId="15" fillId="20" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="17" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="23" fillId="17" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="17" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="23" fillId="17" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="23" fillId="17" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="23" fillId="17" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2174,13 +2431,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="5" fillId="17" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="17" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2201,7 +2476,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2222,46 +2497,34 @@
     <xf numFmtId="0" fontId="15" fillId="21" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="17" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2288,43 +2551,139 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2715,100 +3074,105 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2565E548-5449-442A-A965-6E689A09088F}">
-  <dimension ref="B1:P29"/>
+  <dimension ref="B1:Q29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="2" max="2" width="5.08984375" customWidth="1"/>
     <col min="3" max="3" width="11.36328125" customWidth="1"/>
-    <col min="4" max="5" width="12.90625" customWidth="1"/>
-    <col min="6" max="6" width="53.90625" customWidth="1"/>
-    <col min="7" max="7" width="21.26953125" customWidth="1"/>
-    <col min="8" max="8" width="9.08984375" customWidth="1"/>
-    <col min="10" max="14" width="24.453125" style="103" customWidth="1"/>
-    <col min="15" max="15" width="5.81640625" customWidth="1"/>
-    <col min="16" max="16" width="17.54296875" style="60" customWidth="1"/>
+    <col min="4" max="4" width="12.90625" customWidth="1"/>
+    <col min="5" max="5" width="17.08984375" customWidth="1"/>
+    <col min="6" max="7" width="53.90625" customWidth="1"/>
+    <col min="8" max="8" width="21.26953125" customWidth="1"/>
+    <col min="9" max="9" width="9.08984375" customWidth="1"/>
+    <col min="11" max="15" width="24.453125" style="97" customWidth="1"/>
+    <col min="16" max="16" width="5.81640625" customWidth="1"/>
+    <col min="17" max="17" width="17.54296875" style="54" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="31.25" hidden="1" customHeight="1">
-      <c r="B1" s="153" t="s">
+    <row r="1" spans="2:17" ht="31.25" hidden="1" customHeight="1" thickBot="1">
+      <c r="B1" s="146" t="s">
         <v>206</v>
       </c>
-      <c r="C1" s="153"/>
-      <c r="D1" s="153"/>
-      <c r="E1" s="153"/>
-      <c r="F1" s="153"/>
-      <c r="G1" s="153"/>
-      <c r="H1" s="153"/>
-      <c r="I1" s="153"/>
-      <c r="J1" s="153"/>
-      <c r="K1" s="153"/>
-      <c r="L1" s="153"/>
-      <c r="M1" s="153"/>
-      <c r="N1" s="153"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="4"/>
-    </row>
-    <row r="2" spans="2:16" ht="15.5" hidden="1">
-      <c r="B2" s="154" t="s">
+      <c r="C1" s="146"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="146"/>
+      <c r="F1" s="146"/>
+      <c r="G1" s="146"/>
+      <c r="H1" s="146"/>
+      <c r="I1" s="146"/>
+      <c r="J1" s="146"/>
+      <c r="K1" s="146"/>
+      <c r="L1" s="146"/>
+      <c r="M1" s="146"/>
+      <c r="N1" s="146"/>
+      <c r="O1" s="146"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="4"/>
+    </row>
+    <row r="2" spans="2:17" ht="16" hidden="1" thickBot="1">
+      <c r="B2" s="147" t="s">
         <v>191</v>
       </c>
-      <c r="C2" s="154"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="154"/>
-      <c r="F2" s="154"/>
-      <c r="G2" s="154"/>
-      <c r="H2" s="154"/>
-      <c r="I2" s="154"/>
-      <c r="J2" s="154"/>
-      <c r="K2" s="154"/>
-      <c r="L2" s="154"/>
-      <c r="M2" s="154"/>
-      <c r="N2" s="154"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="4"/>
-    </row>
-    <row r="3" spans="2:16" ht="15.5" hidden="1">
-      <c r="B3" s="155" t="s">
+      <c r="C2" s="147"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="147"/>
+      <c r="H2" s="147"/>
+      <c r="I2" s="147"/>
+      <c r="J2" s="147"/>
+      <c r="K2" s="147"/>
+      <c r="L2" s="147"/>
+      <c r="M2" s="147"/>
+      <c r="N2" s="147"/>
+      <c r="O2" s="147"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="4"/>
+    </row>
+    <row r="3" spans="2:17" ht="16" hidden="1" thickBot="1">
+      <c r="B3" s="148" t="s">
         <v>179</v>
       </c>
-      <c r="C3" s="155"/>
-      <c r="D3" s="155"/>
-      <c r="E3" s="155"/>
-      <c r="F3" s="155"/>
-      <c r="G3" s="155"/>
-      <c r="H3" s="155"/>
-      <c r="I3" s="155"/>
-      <c r="J3" s="155"/>
-      <c r="K3" s="155"/>
-      <c r="L3" s="155"/>
-      <c r="M3" s="155"/>
-      <c r="N3" s="155"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="4"/>
-    </row>
-    <row r="4" spans="2:16" ht="15.5" hidden="1">
-      <c r="B4" s="155"/>
-      <c r="C4" s="155"/>
-      <c r="D4" s="155"/>
-      <c r="E4" s="155"/>
-      <c r="F4" s="155"/>
-      <c r="G4" s="155"/>
-      <c r="H4" s="155"/>
-      <c r="I4" s="155"/>
-      <c r="J4" s="155"/>
-      <c r="K4" s="155"/>
-      <c r="L4" s="155"/>
-      <c r="M4" s="155"/>
-      <c r="N4" s="155"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="4"/>
-    </row>
-    <row r="5" spans="2:16" ht="23.5" hidden="1" thickBot="1">
+      <c r="C3" s="148"/>
+      <c r="D3" s="148"/>
+      <c r="E3" s="148"/>
+      <c r="F3" s="148"/>
+      <c r="G3" s="148"/>
+      <c r="H3" s="148"/>
+      <c r="I3" s="148"/>
+      <c r="J3" s="148"/>
+      <c r="K3" s="148"/>
+      <c r="L3" s="148"/>
+      <c r="M3" s="148"/>
+      <c r="N3" s="148"/>
+      <c r="O3" s="148"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="4"/>
+    </row>
+    <row r="4" spans="2:17" ht="16" hidden="1" thickBot="1">
+      <c r="B4" s="148"/>
+      <c r="C4" s="148"/>
+      <c r="D4" s="148"/>
+      <c r="E4" s="148"/>
+      <c r="F4" s="148"/>
+      <c r="G4" s="148"/>
+      <c r="H4" s="148"/>
+      <c r="I4" s="148"/>
+      <c r="J4" s="148"/>
+      <c r="K4" s="148"/>
+      <c r="L4" s="148"/>
+      <c r="M4" s="148"/>
+      <c r="N4" s="148"/>
+      <c r="O4" s="148"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="4"/>
+    </row>
+    <row r="5" spans="2:17" ht="23.5" hidden="1" thickBot="1">
       <c r="B5" s="7"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -2816,41 +3180,43 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="5"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="1"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="4"/>
-    </row>
-    <row r="6" spans="2:16" s="55" customFormat="1" ht="34.25" customHeight="1" thickBot="1">
-      <c r="B6" s="51"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="149" t="s">
+      <c r="O5" s="5"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="4"/>
+    </row>
+    <row r="6" spans="2:17" s="49" customFormat="1" ht="34.25" customHeight="1" thickBot="1">
+      <c r="B6" s="45"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="142" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="150"/>
-      <c r="F6" s="56" t="s">
+      <c r="E6" s="143"/>
+      <c r="F6" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="151" t="s">
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="144" t="s">
         <v>2</v>
       </c>
-      <c r="J6" s="152"/>
-      <c r="K6" s="152"/>
-      <c r="L6" s="152"/>
-      <c r="M6" s="152"/>
-      <c r="N6" s="61"/>
-      <c r="O6" s="54"/>
-      <c r="P6" s="58" t="s">
+      <c r="K6" s="145"/>
+      <c r="L6" s="145"/>
+      <c r="M6" s="145"/>
+      <c r="N6" s="145"/>
+      <c r="O6" s="55"/>
+      <c r="P6" s="48"/>
+      <c r="Q6" s="52" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="7" spans="2:16" s="57" customFormat="1" ht="21.5" thickBot="1">
+    <row r="7" spans="2:17" s="51" customFormat="1" ht="21.5" thickBot="1">
       <c r="B7" s="8" t="s">
         <v>3</v>
       </c>
@@ -2866,122 +3232,129 @@
       <c r="F7" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="11"/>
+      <c r="H7" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="I7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="13" t="s">
+      <c r="J7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="62" t="s">
+      <c r="K7" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="63" t="s">
+      <c r="L7" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="L7" s="64" t="s">
+      <c r="M7" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="M7" s="65" t="s">
+      <c r="N7" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="N7" s="66" t="s">
+      <c r="O7" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="14"/>
-      <c r="P7" s="59" t="s">
+      <c r="P7" s="14"/>
+      <c r="Q7" s="53" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="8" spans="2:16" ht="30.5" thickBot="1">
-      <c r="B8" s="117">
+    <row r="8" spans="2:17" ht="38" thickBot="1">
+      <c r="B8" s="108">
         <v>1</v>
       </c>
-      <c r="C8" s="118" t="s">
+      <c r="C8" s="109" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="118" t="s">
+      <c r="D8" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="119" t="s">
+      <c r="E8" s="164" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="120" t="s">
+      <c r="F8" s="177" t="s">
         <v>55</v>
       </c>
-      <c r="G8" s="120" t="s">
+      <c r="G8" s="177" t="s">
+        <v>236</v>
+      </c>
+      <c r="H8" s="110" t="s">
         <v>208</v>
       </c>
-      <c r="H8" s="118" t="s">
+      <c r="I8" s="109" t="s">
         <v>33</v>
       </c>
-      <c r="I8" s="121"/>
-      <c r="J8" s="122" t="s">
+      <c r="J8" s="140">
+        <v>1</v>
+      </c>
+      <c r="K8" s="111" t="s">
         <v>56</v>
       </c>
-      <c r="K8" s="123" t="s">
+      <c r="L8" s="112" t="s">
         <v>57</v>
       </c>
-      <c r="L8" s="124" t="s">
+      <c r="M8" s="113" t="s">
         <v>58</v>
       </c>
-      <c r="M8" s="125" t="s">
+      <c r="N8" s="114" t="s">
         <v>59</v>
       </c>
-      <c r="N8" s="126" t="s">
+      <c r="O8" s="115" t="s">
         <v>60</v>
       </c>
-      <c r="O8" s="16"/>
-      <c r="P8" s="19" t="s">
+      <c r="P8" s="16"/>
+      <c r="Q8" s="19" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="2:16" ht="50">
+    <row r="9" spans="2:17" ht="62.5">
       <c r="B9" s="15">
         <v>2</v>
       </c>
-      <c r="C9" s="127" t="s">
+      <c r="C9" s="116" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="127" t="s">
+      <c r="D9" s="116" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="127" t="s">
+      <c r="E9" s="165" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="128" t="s">
+      <c r="F9" s="178" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="128" t="s">
+      <c r="G9" s="178"/>
+      <c r="H9" s="117" t="s">
         <v>209</v>
       </c>
-      <c r="H9" s="127" t="s">
+      <c r="I9" s="116" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="129"/>
-      <c r="J9" s="130" t="s">
+      <c r="J9" s="118"/>
+      <c r="K9" s="119" t="s">
         <v>180</v>
       </c>
-      <c r="K9" s="131" t="s">
+      <c r="L9" s="120" t="s">
         <v>181</v>
       </c>
-      <c r="L9" s="132" t="s">
+      <c r="M9" s="121" t="s">
         <v>183</v>
       </c>
-      <c r="M9" s="133" t="s">
+      <c r="N9" s="122" t="s">
         <v>182</v>
       </c>
-      <c r="N9" s="134" t="s">
+      <c r="O9" s="123" t="s">
         <v>49</v>
       </c>
-      <c r="O9" s="18"/>
-      <c r="P9" s="19" t="s">
+      <c r="P9" s="18"/>
+      <c r="Q9" s="19" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="10" spans="2:16" ht="30">
+    <row r="10" spans="2:17" ht="30">
       <c r="B10" s="17">
         <v>3</v>
       </c>
@@ -2991,40 +3364,41 @@
       <c r="D10" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="166" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="21" t="s">
+      <c r="F10" s="179" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="21" t="s">
+      <c r="G10" s="179"/>
+      <c r="H10" s="21" t="s">
         <v>210</v>
       </c>
-      <c r="H10" s="20" t="s">
+      <c r="I10" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="I10" s="22"/>
-      <c r="J10" s="67" t="s">
+      <c r="J10" s="22"/>
+      <c r="K10" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="K10" s="68" t="s">
+      <c r="L10" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="L10" s="69" t="s">
+      <c r="M10" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="M10" s="70" t="s">
+      <c r="N10" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="N10" s="71" t="s">
+      <c r="O10" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="O10" s="23"/>
-      <c r="P10" s="19" t="s">
+      <c r="P10" s="23"/>
+      <c r="Q10" s="19" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="2:16" ht="26">
+    <row r="11" spans="2:17" ht="26">
       <c r="B11" s="17">
         <v>4</v>
       </c>
@@ -3034,40 +3408,41 @@
       <c r="D11" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="167" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="25" t="s">
+      <c r="F11" s="163" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="25" t="s">
+      <c r="G11" s="180"/>
+      <c r="H11" s="25" t="s">
         <v>211</v>
       </c>
-      <c r="H11" s="24" t="s">
+      <c r="I11" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="I11" s="26"/>
-      <c r="J11" s="72" t="s">
+      <c r="J11" s="26"/>
+      <c r="K11" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="K11" s="73" t="s">
+      <c r="L11" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="L11" s="74" t="s">
+      <c r="M11" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="M11" s="75" t="s">
+      <c r="N11" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="N11" s="76" t="s">
+      <c r="O11" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="O11" s="16"/>
-      <c r="P11" s="19" t="s">
+      <c r="P11" s="16"/>
+      <c r="Q11" s="19" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="2:16" ht="39">
+    <row r="12" spans="2:17" ht="39">
       <c r="B12" s="17">
         <v>5</v>
       </c>
@@ -3077,40 +3452,45 @@
       <c r="D12" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="24" t="s">
+      <c r="E12" s="167" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="25" t="s">
+      <c r="F12" s="186" t="s">
         <v>47</v>
       </c>
-      <c r="G12" s="25" t="s">
+      <c r="G12" s="190" t="s">
+        <v>236</v>
+      </c>
+      <c r="H12" s="163" t="s">
         <v>212</v>
       </c>
-      <c r="H12" s="24" t="s">
+      <c r="I12" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="I12" s="26"/>
-      <c r="J12" s="72" t="s">
+      <c r="J12" s="141">
+        <v>1</v>
+      </c>
+      <c r="K12" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="K12" s="73" t="s">
+      <c r="L12" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="L12" s="74" t="s">
+      <c r="M12" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="M12" s="75" t="s">
+      <c r="N12" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="N12" s="76" t="s">
+      <c r="O12" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="O12" s="16"/>
-      <c r="P12" s="19" t="s">
+      <c r="P12" s="16"/>
+      <c r="Q12" s="19" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="2:16" ht="25">
+    <row r="13" spans="2:17" ht="25">
       <c r="B13" s="17">
         <v>6</v>
       </c>
@@ -3120,40 +3500,43 @@
       <c r="D13" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="E13" s="27" t="s">
+      <c r="E13" s="168" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="25" t="s">
+      <c r="F13" s="186" t="s">
         <v>63</v>
       </c>
-      <c r="G13" s="25" t="s">
+      <c r="G13" s="190" t="s">
+        <v>238</v>
+      </c>
+      <c r="H13" s="163" t="s">
         <v>213</v>
       </c>
-      <c r="H13" s="24" t="s">
+      <c r="I13" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="I13" s="26"/>
-      <c r="J13" s="72" t="s">
+      <c r="J13" s="26"/>
+      <c r="K13" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="K13" s="73" t="s">
+      <c r="L13" s="67" t="s">
         <v>65</v>
       </c>
-      <c r="L13" s="74" t="s">
+      <c r="M13" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="M13" s="75" t="s">
+      <c r="N13" s="69" t="s">
         <v>67</v>
       </c>
-      <c r="N13" s="76" t="s">
+      <c r="O13" s="70" t="s">
         <v>68</v>
       </c>
-      <c r="O13" s="16"/>
-      <c r="P13" s="19" t="s">
+      <c r="P13" s="16"/>
+      <c r="Q13" s="19" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="2:16" ht="26">
+    <row r="14" spans="2:17" ht="26">
       <c r="B14" s="17">
         <v>7</v>
       </c>
@@ -3163,40 +3546,45 @@
       <c r="D14" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="27" t="s">
+      <c r="E14" s="168" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="25" t="s">
+      <c r="F14" s="192" t="s">
         <v>78</v>
       </c>
-      <c r="G14" s="25" t="s">
+      <c r="G14" s="190" t="s">
+        <v>236</v>
+      </c>
+      <c r="H14" s="163" t="s">
         <v>214</v>
       </c>
-      <c r="H14" s="24" t="s">
+      <c r="I14" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="I14" s="24"/>
-      <c r="J14" s="72" t="s">
+      <c r="J14" s="139">
+        <v>2</v>
+      </c>
+      <c r="K14" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="K14" s="73" t="s">
+      <c r="L14" s="67" t="s">
         <v>80</v>
       </c>
-      <c r="L14" s="74" t="s">
+      <c r="M14" s="68" t="s">
         <v>81</v>
       </c>
-      <c r="M14" s="75" t="s">
+      <c r="N14" s="69" t="s">
         <v>82</v>
       </c>
-      <c r="N14" s="76" t="s">
+      <c r="O14" s="70" t="s">
         <v>83</v>
       </c>
-      <c r="O14" s="16"/>
-      <c r="P14" s="19" t="s">
+      <c r="P14" s="16"/>
+      <c r="Q14" s="19" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="2:16" ht="60">
+    <row r="15" spans="2:17" ht="60">
       <c r="B15" s="17">
         <v>8</v>
       </c>
@@ -3206,259 +3594,273 @@
       <c r="D15" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="E15" s="107" t="s">
+      <c r="E15" s="169" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="29" t="s">
+      <c r="F15" s="190" t="s">
         <v>90</v>
       </c>
-      <c r="G15" s="29" t="s">
+      <c r="G15" s="190" t="s">
+        <v>236</v>
+      </c>
+      <c r="H15" s="180" t="s">
         <v>215</v>
       </c>
-      <c r="H15" s="28" t="s">
+      <c r="I15" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="I15" s="26"/>
-      <c r="J15" s="72" t="s">
+      <c r="J15" s="26"/>
+      <c r="K15" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="K15" s="73" t="s">
+      <c r="L15" s="67" t="s">
         <v>92</v>
       </c>
-      <c r="L15" s="74" t="s">
+      <c r="M15" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="M15" s="75" t="s">
+      <c r="N15" s="69" t="s">
         <v>94</v>
       </c>
-      <c r="N15" s="76" t="s">
+      <c r="O15" s="70" t="s">
         <v>95</v>
       </c>
-      <c r="O15" s="30"/>
-      <c r="P15" s="19" t="s">
+      <c r="P15" s="29"/>
+      <c r="Q15" s="19" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="2:16" ht="80">
+    <row r="16" spans="2:17" ht="90">
       <c r="B16" s="17">
         <v>9</v>
       </c>
-      <c r="C16" s="106" t="s">
+      <c r="C16" s="100" t="s">
         <v>98</v>
       </c>
       <c r="D16" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="107" t="s">
+      <c r="E16" s="169" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="109" t="s">
+      <c r="F16" s="190" t="s">
         <v>99</v>
       </c>
-      <c r="G16" s="109" t="s">
+      <c r="G16" s="190" t="s">
+        <v>235</v>
+      </c>
+      <c r="H16" s="101" t="s">
         <v>216</v>
       </c>
-      <c r="H16" s="106" t="s">
+      <c r="I16" s="100" t="s">
         <v>33</v>
       </c>
-      <c r="I16" s="26"/>
-      <c r="J16" s="77" t="s">
+      <c r="J16" s="26"/>
+      <c r="K16" s="71" t="s">
         <v>100</v>
       </c>
-      <c r="K16" s="112" t="s">
+      <c r="L16" s="103" t="s">
         <v>49</v>
       </c>
-      <c r="L16" s="113" t="s">
+      <c r="M16" s="104" t="s">
         <v>101</v>
       </c>
-      <c r="M16" s="114" t="s">
+      <c r="N16" s="105" t="s">
         <v>102</v>
       </c>
-      <c r="N16" s="78" t="s">
+      <c r="O16" s="72" t="s">
         <v>49</v>
       </c>
-      <c r="O16" s="31"/>
-      <c r="P16" s="19" t="s">
+      <c r="P16" s="30"/>
+      <c r="Q16" s="19" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="2:16" ht="108">
+    <row r="17" spans="2:17" ht="108">
       <c r="B17" s="17">
         <v>10</v>
       </c>
-      <c r="C17" s="32" t="s">
+      <c r="C17" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="D17" s="32" t="s">
+      <c r="D17" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="E17" s="32" t="s">
+      <c r="E17" s="170" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="33" t="s">
+      <c r="F17" s="194" t="s">
         <v>111</v>
       </c>
-      <c r="G17" s="33" t="s">
+      <c r="G17" s="190" t="s">
+        <v>233</v>
+      </c>
+      <c r="H17" s="181" t="s">
         <v>217</v>
       </c>
-      <c r="H17" s="32" t="s">
+      <c r="I17" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="I17" s="34"/>
-      <c r="J17" s="79" t="s">
+      <c r="J17" s="32"/>
+      <c r="K17" s="73" t="s">
         <v>112</v>
       </c>
-      <c r="K17" s="80" t="s">
+      <c r="L17" s="74" t="s">
         <v>113</v>
       </c>
-      <c r="L17" s="146" t="s">
+      <c r="M17" s="134" t="s">
         <v>205</v>
       </c>
-      <c r="M17" s="147" t="s">
+      <c r="N17" s="135" t="s">
         <v>114</v>
       </c>
-      <c r="N17" s="148" t="s">
+      <c r="O17" s="136" t="s">
         <v>201</v>
       </c>
-      <c r="O17" s="35"/>
-      <c r="P17" s="19" t="s">
+      <c r="P17" s="33"/>
+      <c r="Q17" s="19" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="2:16" ht="26.5" thickBot="1">
-      <c r="B18" s="45">
+    <row r="18" spans="2:17" ht="26.5" thickBot="1">
+      <c r="B18" s="41">
         <v>11</v>
       </c>
-      <c r="C18" s="135" t="s">
+      <c r="C18" s="124" t="s">
         <v>109</v>
       </c>
-      <c r="D18" s="135" t="s">
+      <c r="D18" s="124" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="135" t="s">
+      <c r="E18" s="171" t="s">
         <v>17</v>
       </c>
-      <c r="F18" s="136" t="s">
+      <c r="F18" s="182" t="s">
         <v>115</v>
       </c>
-      <c r="G18" s="136" t="s">
+      <c r="G18" s="193"/>
+      <c r="H18" s="125" t="s">
         <v>218</v>
       </c>
-      <c r="H18" s="135" t="s">
+      <c r="I18" s="124" t="s">
         <v>116</v>
       </c>
-      <c r="I18" s="137"/>
-      <c r="J18" s="138" t="s">
+      <c r="J18" s="126"/>
+      <c r="K18" s="127" t="s">
         <v>117</v>
       </c>
-      <c r="K18" s="139" t="s">
+      <c r="L18" s="128" t="s">
         <v>118</v>
       </c>
-      <c r="L18" s="140" t="s">
+      <c r="M18" s="129" t="s">
         <v>119</v>
       </c>
-      <c r="M18" s="141" t="s">
+      <c r="N18" s="130" t="s">
         <v>120</v>
       </c>
-      <c r="N18" s="142" t="s">
+      <c r="O18" s="131" t="s">
         <v>121</v>
       </c>
-      <c r="O18" s="35"/>
-      <c r="P18" s="19" t="s">
+      <c r="P18" s="33"/>
+      <c r="Q18" s="19" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="19" spans="2:16" ht="52">
+    <row r="19" spans="2:17" ht="52">
       <c r="B19" s="15">
         <v>12</v>
       </c>
-      <c r="C19" s="127" t="s">
+      <c r="C19" s="116" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="127" t="s">
+      <c r="D19" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="143" t="s">
+      <c r="E19" s="172" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="128" t="s">
+      <c r="F19" s="178" t="s">
         <v>23</v>
       </c>
-      <c r="G19" s="128" t="s">
+      <c r="G19" s="178"/>
+      <c r="H19" s="117" t="s">
         <v>219</v>
       </c>
-      <c r="H19" s="127" t="s">
+      <c r="I19" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="I19" s="144" t="s">
+      <c r="J19" s="132" t="s">
         <v>24</v>
       </c>
-      <c r="J19" s="130" t="s">
+      <c r="K19" s="119" t="s">
         <v>25</v>
       </c>
-      <c r="K19" s="131" t="s">
+      <c r="L19" s="120" t="s">
         <v>26</v>
       </c>
-      <c r="L19" s="132" t="s">
+      <c r="M19" s="121" t="s">
         <v>27</v>
       </c>
-      <c r="M19" s="133" t="s">
+      <c r="N19" s="122" t="s">
         <v>28</v>
       </c>
-      <c r="N19" s="134" t="s">
+      <c r="O19" s="123" t="s">
         <v>29</v>
       </c>
-      <c r="O19" s="35"/>
-      <c r="P19" s="19" t="s">
+      <c r="P19" s="33"/>
+      <c r="Q19" s="19" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="2:16" ht="37.5">
+    <row r="20" spans="2:17" ht="30">
       <c r="B20" s="17">
         <v>13</v>
       </c>
-      <c r="C20" s="36" t="s">
+      <c r="C20" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="D20" s="36" t="s">
+      <c r="D20" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="108" t="s">
+      <c r="E20" s="173" t="s">
         <v>22</v>
       </c>
-      <c r="F20" s="37" t="s">
+      <c r="F20" s="183" t="s">
         <v>69</v>
       </c>
-      <c r="G20" s="37" t="s">
+      <c r="G20" s="189" t="s">
+        <v>236</v>
+      </c>
+      <c r="H20" s="35" t="s">
         <v>220</v>
       </c>
-      <c r="H20" s="36" t="s">
+      <c r="I20" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="I20" s="111" t="s">
+      <c r="J20" s="102" t="s">
         <v>24</v>
       </c>
-      <c r="J20" s="81" t="s">
+      <c r="K20" s="75" t="s">
         <v>186</v>
       </c>
-      <c r="K20" s="82" t="s">
+      <c r="L20" s="76" t="s">
         <v>187</v>
       </c>
-      <c r="L20" s="83" t="s">
+      <c r="M20" s="77" t="s">
         <v>185</v>
       </c>
-      <c r="M20" s="84" t="s">
+      <c r="N20" s="78" t="s">
         <v>188</v>
       </c>
-      <c r="N20" s="85" t="s">
+      <c r="O20" s="79" t="s">
         <v>189</v>
       </c>
-      <c r="O20" s="38"/>
-      <c r="P20" s="19" t="s">
+      <c r="P20" s="36"/>
+      <c r="Q20" s="19" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="2:16" ht="37.5">
+    <row r="21" spans="2:17" ht="25">
       <c r="B21" s="17">
         <v>14</v>
       </c>
@@ -3468,83 +3870,93 @@
       <c r="D21" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="39" t="s">
+      <c r="E21" s="174" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="25" t="s">
+      <c r="F21" s="186" t="s">
         <v>70</v>
       </c>
-      <c r="G21" s="25" t="s">
+      <c r="G21" s="190" t="s">
+        <v>236</v>
+      </c>
+      <c r="H21" s="163" t="s">
         <v>221</v>
       </c>
-      <c r="H21" s="24" t="s">
+      <c r="I21" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="I21" s="26"/>
-      <c r="J21" s="81" t="s">
+      <c r="J21" s="139">
+        <v>2</v>
+      </c>
+      <c r="K21" s="75" t="s">
         <v>71</v>
       </c>
-      <c r="K21" s="82" t="s">
+      <c r="L21" s="76" t="s">
         <v>72</v>
       </c>
-      <c r="L21" s="83" t="s">
+      <c r="M21" s="77" t="s">
         <v>73</v>
       </c>
-      <c r="M21" s="84" t="s">
+      <c r="N21" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="N21" s="85" t="s">
+      <c r="O21" s="79" t="s">
         <v>75</v>
       </c>
-      <c r="O21" s="16"/>
-      <c r="P21" s="19" t="s">
+      <c r="P21" s="16"/>
+      <c r="Q21" s="19" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="2:16" ht="37.5">
+    <row r="22" spans="2:17" ht="26">
       <c r="B22" s="17">
         <v>15</v>
       </c>
-      <c r="C22" s="39" t="s">
+      <c r="C22" s="37" t="s">
         <v>77</v>
       </c>
       <c r="D22" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="27" t="s">
+      <c r="E22" s="168" t="s">
         <v>22</v>
       </c>
-      <c r="F22" s="110" t="s">
+      <c r="F22" s="187" t="s">
         <v>190</v>
       </c>
-      <c r="G22" s="169" t="s">
+      <c r="G22" s="191" t="s">
+        <v>236</v>
+      </c>
+      <c r="H22" s="137" t="s">
         <v>222</v>
       </c>
-      <c r="H22" s="24" t="s">
+      <c r="I22" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="I22" s="24"/>
-      <c r="J22" s="86" t="s">
+      <c r="J22" s="139">
+        <v>2</v>
+      </c>
+      <c r="K22" s="80" t="s">
         <v>192</v>
       </c>
-      <c r="K22" s="87" t="s">
+      <c r="L22" s="81" t="s">
         <v>193</v>
       </c>
-      <c r="L22" s="88" t="s">
+      <c r="M22" s="82" t="s">
         <v>194</v>
       </c>
-      <c r="M22" s="89" t="s">
+      <c r="N22" s="83" t="s">
         <v>195</v>
       </c>
-      <c r="N22" s="90" t="s">
+      <c r="O22" s="84" t="s">
         <v>196</v>
       </c>
-      <c r="O22" s="115"/>
-      <c r="P22" s="19" t="s">
+      <c r="P22" s="106"/>
+      <c r="Q22" s="19" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="2:16" ht="37.5">
+    <row r="23" spans="2:17" ht="26">
       <c r="B23" s="17">
         <v>16</v>
       </c>
@@ -3554,40 +3966,43 @@
       <c r="D23" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="E23" s="41" t="s">
+      <c r="E23" s="162" t="s">
         <v>22</v>
       </c>
-      <c r="F23" s="40" t="s">
+      <c r="F23" s="188" t="s">
         <v>85</v>
       </c>
-      <c r="G23" s="109" t="s">
+      <c r="G23" s="190" t="s">
+        <v>237</v>
+      </c>
+      <c r="H23" s="101" t="s">
         <v>223</v>
       </c>
-      <c r="H23" s="24" t="s">
+      <c r="I23" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="I23" s="26"/>
-      <c r="J23" s="77" t="s">
+      <c r="J23" s="26"/>
+      <c r="K23" s="71" t="s">
         <v>86</v>
       </c>
-      <c r="K23" s="112" t="s">
+      <c r="L23" s="103" t="s">
         <v>49</v>
       </c>
-      <c r="L23" s="113" t="s">
+      <c r="M23" s="104" t="s">
         <v>87</v>
       </c>
-      <c r="M23" s="114" t="s">
+      <c r="N23" s="105" t="s">
         <v>88</v>
       </c>
-      <c r="N23" s="78" t="s">
+      <c r="O23" s="72" t="s">
         <v>49</v>
       </c>
-      <c r="O23" s="116"/>
-      <c r="P23" s="19" t="s">
+      <c r="P23" s="107"/>
+      <c r="Q23" s="19" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="2:16" ht="65">
+    <row r="24" spans="2:17" ht="65">
       <c r="B24" s="17">
         <v>17</v>
       </c>
@@ -3597,83 +4012,87 @@
       <c r="D24" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="E24" s="41" t="s">
+      <c r="E24" s="162" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="25" t="s">
+      <c r="F24" s="163" t="s">
         <v>97</v>
       </c>
-      <c r="G24" s="25" t="s">
+      <c r="G24" s="183"/>
+      <c r="H24" s="25" t="s">
         <v>224</v>
       </c>
-      <c r="H24" s="24" t="s">
+      <c r="I24" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="I24" s="26"/>
-      <c r="J24" s="72" t="s">
+      <c r="J24" s="26"/>
+      <c r="K24" s="66" t="s">
         <v>197</v>
       </c>
-      <c r="K24" s="73" t="s">
+      <c r="L24" s="67" t="s">
         <v>198</v>
       </c>
-      <c r="L24" s="74" t="s">
+      <c r="M24" s="68" t="s">
         <v>199</v>
       </c>
-      <c r="M24" s="75" t="s">
+      <c r="N24" s="69" t="s">
         <v>200</v>
       </c>
-      <c r="N24" s="76" t="s">
+      <c r="O24" s="70" t="s">
         <v>204</v>
       </c>
-      <c r="O24" s="16"/>
-      <c r="P24" s="19" t="s">
+      <c r="P24" s="16"/>
+      <c r="Q24" s="19" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="2:16" ht="104">
+    <row r="25" spans="2:17" ht="104">
       <c r="B25" s="17">
         <v>18</v>
       </c>
       <c r="C25" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="D25" s="39" t="s">
+      <c r="D25" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="E25" s="24" t="s">
+      <c r="E25" s="167" t="s">
         <v>22</v>
       </c>
-      <c r="F25" s="25" t="s">
+      <c r="F25" s="163" t="s">
         <v>104</v>
       </c>
-      <c r="G25" s="25" t="s">
+      <c r="G25" s="163" t="s">
+        <v>234</v>
+      </c>
+      <c r="H25" s="25" t="s">
         <v>225</v>
       </c>
-      <c r="H25" s="24" t="s">
+      <c r="I25" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="I25" s="26"/>
-      <c r="J25" s="72" t="s">
+      <c r="J25" s="26"/>
+      <c r="K25" s="66" t="s">
         <v>105</v>
       </c>
-      <c r="K25" s="73" t="s">
+      <c r="L25" s="67" t="s">
         <v>105</v>
       </c>
-      <c r="L25" s="74" t="s">
+      <c r="M25" s="68" t="s">
         <v>106</v>
       </c>
-      <c r="M25" s="75" t="s">
+      <c r="N25" s="69" t="s">
         <v>107</v>
       </c>
-      <c r="N25" s="76" t="s">
+      <c r="O25" s="70" t="s">
         <v>108</v>
       </c>
-      <c r="O25" s="16"/>
-      <c r="P25" s="19" t="s">
+      <c r="P25" s="16"/>
+      <c r="Q25" s="19" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="2:16" ht="70">
+    <row r="26" spans="2:17" ht="70">
       <c r="B26" s="17">
         <v>19</v>
       </c>
@@ -3683,40 +4102,43 @@
       <c r="D26" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="E26" s="41" t="s">
+      <c r="E26" s="162" t="s">
         <v>22</v>
       </c>
-      <c r="F26" s="25" t="s">
+      <c r="F26" s="163" t="s">
         <v>124</v>
       </c>
-      <c r="G26" s="25" t="s">
+      <c r="G26" s="163" t="s">
+        <v>231</v>
+      </c>
+      <c r="H26" s="25" t="s">
         <v>226</v>
       </c>
-      <c r="H26" s="24" t="s">
+      <c r="I26" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="I26" s="26"/>
-      <c r="J26" s="91" t="s">
+      <c r="J26" s="26"/>
+      <c r="K26" s="85" t="s">
         <v>125</v>
       </c>
-      <c r="K26" s="92" t="s">
+      <c r="L26" s="86" t="s">
         <v>126</v>
       </c>
-      <c r="L26" s="93" t="s">
+      <c r="M26" s="87" t="s">
         <v>127</v>
       </c>
-      <c r="M26" s="89" t="s">
+      <c r="N26" s="83" t="s">
         <v>128</v>
       </c>
-      <c r="N26" s="90" t="s">
+      <c r="O26" s="84" t="s">
         <v>129</v>
       </c>
-      <c r="O26" s="16"/>
-      <c r="P26" s="19" t="s">
+      <c r="P26" s="16"/>
+      <c r="Q26" s="19" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="2:16" ht="37.5">
+    <row r="27" spans="2:17" ht="40">
       <c r="B27" s="17">
         <v>20</v>
       </c>
@@ -3726,42 +4148,45 @@
       <c r="D27" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="E27" s="41" t="s">
+      <c r="E27" s="162" t="s">
         <v>22</v>
       </c>
-      <c r="F27" s="25" t="s">
+      <c r="F27" s="163" t="s">
         <v>130</v>
       </c>
-      <c r="G27" s="25" t="s">
+      <c r="G27" s="163" t="s">
+        <v>230</v>
+      </c>
+      <c r="H27" s="25" t="s">
         <v>227</v>
       </c>
-      <c r="H27" s="24" t="s">
+      <c r="I27" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="I27" s="145" t="s">
+      <c r="J27" s="133" t="s">
         <v>24</v>
       </c>
-      <c r="J27" s="91" t="s">
+      <c r="K27" s="85" t="s">
         <v>131</v>
       </c>
-      <c r="K27" s="92" t="s">
+      <c r="L27" s="86" t="s">
         <v>132</v>
       </c>
-      <c r="L27" s="93" t="s">
+      <c r="M27" s="87" t="s">
         <v>133</v>
       </c>
-      <c r="M27" s="89" t="s">
+      <c r="N27" s="83" t="s">
         <v>134</v>
       </c>
-      <c r="N27" s="90" t="s">
+      <c r="O27" s="84" t="s">
         <v>135</v>
       </c>
-      <c r="O27" s="16"/>
-      <c r="P27" s="19" t="s">
+      <c r="P27" s="16"/>
+      <c r="Q27" s="19" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="2:16" ht="37.5">
+    <row r="28" spans="2:17" ht="30">
       <c r="B28" s="17">
         <v>21</v>
       </c>
@@ -3771,89 +4196,97 @@
       <c r="D28" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="E28" s="42" t="s">
+      <c r="E28" s="175" t="s">
         <v>22</v>
       </c>
-      <c r="F28" s="40" t="s">
+      <c r="F28" s="184" t="s">
         <v>136</v>
       </c>
-      <c r="G28" s="40" t="s">
+      <c r="G28" s="184" t="s">
+        <v>232</v>
+      </c>
+      <c r="H28" s="38" t="s">
         <v>228</v>
       </c>
-      <c r="H28" s="27" t="s">
+      <c r="I28" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="I28" s="43"/>
-      <c r="J28" s="86" t="s">
+      <c r="J28" s="39"/>
+      <c r="K28" s="80" t="s">
         <v>137</v>
       </c>
-      <c r="K28" s="94" t="s">
+      <c r="L28" s="88" t="s">
         <v>138</v>
       </c>
-      <c r="L28" s="95" t="s">
+      <c r="M28" s="89" t="s">
         <v>139</v>
       </c>
-      <c r="M28" s="96" t="s">
+      <c r="N28" s="90" t="s">
         <v>140</v>
       </c>
-      <c r="N28" s="97" t="s">
+      <c r="O28" s="91" t="s">
         <v>141</v>
       </c>
-      <c r="O28" s="44"/>
-      <c r="P28" s="19" t="s">
+      <c r="P28" s="40"/>
+      <c r="Q28" s="19" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="2:16" ht="38" thickBot="1">
-      <c r="B29" s="45">
+    <row r="29" spans="2:17" ht="30.5" thickBot="1">
+      <c r="B29" s="41">
         <v>22</v>
       </c>
-      <c r="C29" s="46" t="s">
+      <c r="C29" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="D29" s="47" t="s">
+      <c r="D29" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="E29" s="48" t="s">
+      <c r="E29" s="176" t="s">
         <v>22</v>
       </c>
-      <c r="F29" s="49" t="s">
+      <c r="F29" s="185" t="s">
         <v>142</v>
       </c>
-      <c r="G29" s="49" t="s">
+      <c r="G29" s="185" t="s">
+        <v>232</v>
+      </c>
+      <c r="H29" s="44" t="s">
         <v>229</v>
       </c>
-      <c r="H29" s="47" t="s">
+      <c r="I29" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="I29" s="50"/>
-      <c r="J29" s="98" t="s">
+      <c r="J29" s="138">
+        <v>1</v>
+      </c>
+      <c r="K29" s="92" t="s">
         <v>143</v>
       </c>
-      <c r="K29" s="99"/>
-      <c r="L29" s="100" t="s">
+      <c r="L29" s="93"/>
+      <c r="M29" s="94" t="s">
         <v>144</v>
       </c>
-      <c r="M29" s="101"/>
-      <c r="N29" s="102" t="s">
+      <c r="N29" s="95"/>
+      <c r="O29" s="96" t="s">
         <v>145</v>
       </c>
-      <c r="O29" s="44"/>
-      <c r="P29" s="19" t="s">
+      <c r="P29" s="40"/>
+      <c r="Q29" s="19" t="s">
         <v>39</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B8:P29">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B8:Q29">
     <sortCondition ref="E8:E29"/>
   </sortState>
   <mergeCells count="6">
     <mergeCell ref="D6:E6"/>
-    <mergeCell ref="I6:M6"/>
-    <mergeCell ref="B1:N1"/>
-    <mergeCell ref="B2:N2"/>
-    <mergeCell ref="B4:N4"/>
-    <mergeCell ref="B3:N3"/>
+    <mergeCell ref="J6:N6"/>
+    <mergeCell ref="B1:O1"/>
+    <mergeCell ref="B2:O2"/>
+    <mergeCell ref="B4:O4"/>
+    <mergeCell ref="B3:O3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3882,7 +4315,7 @@
           <x14:formula1>
             <xm:f>'D:\Dropbox\Work\OCHA Iraq (2017-2020)\C. HPC\2021 HPC\2021 HNO\4. Analysis\Methodology\Analytical Framework\[IRQ_2021HNO_Analysis-Framework_DRAFT-ENDORSED_AWG-IMWG_2020_09_06.xlsx]Dropdown'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>E19:E29 D24:D29 D8:E16 D19:D22</xm:sqref>
+          <xm:sqref>E19:E29 D24:D29 D19:D22 D8:E16</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3905,374 +4338,374 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="34.75" customHeight="1">
-      <c r="B1" s="156" t="s">
+      <c r="B1" s="149" t="s">
         <v>146</v>
       </c>
-      <c r="C1" s="156"/>
-      <c r="D1" s="156"/>
-      <c r="E1" s="156"/>
-      <c r="F1" s="156"/>
-      <c r="G1" s="156"/>
-      <c r="H1" s="156"/>
-      <c r="I1" s="156"/>
-      <c r="J1" s="156"/>
-      <c r="K1" s="156"/>
-      <c r="L1" s="156"/>
-      <c r="M1" s="156"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="149"/>
+      <c r="H1" s="149"/>
+      <c r="I1" s="149"/>
+      <c r="J1" s="149"/>
+      <c r="K1" s="149"/>
+      <c r="L1" s="149"/>
+      <c r="M1" s="149"/>
     </row>
     <row r="2" spans="2:13">
-      <c r="B2" s="104"/>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104"/>
-      <c r="J2" s="104"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="104"/>
-      <c r="M2" s="104"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
     </row>
     <row r="3" spans="2:13" ht="26">
-      <c r="B3" s="105" t="s">
+      <c r="B3" s="99" t="s">
         <v>147</v>
       </c>
-      <c r="C3" s="105" t="s">
+      <c r="C3" s="99" t="s">
         <v>148</v>
       </c>
-      <c r="D3" s="166" t="s">
+      <c r="D3" s="159" t="s">
         <v>149</v>
       </c>
-      <c r="E3" s="166"/>
-      <c r="F3" s="166"/>
-      <c r="G3" s="166"/>
-      <c r="H3" s="166"/>
-      <c r="I3" s="166"/>
-      <c r="J3" s="166"/>
-      <c r="K3" s="166"/>
-      <c r="L3" s="166"/>
-      <c r="M3" s="105" t="s">
+      <c r="E3" s="159"/>
+      <c r="F3" s="159"/>
+      <c r="G3" s="159"/>
+      <c r="H3" s="159"/>
+      <c r="I3" s="159"/>
+      <c r="J3" s="159"/>
+      <c r="K3" s="159"/>
+      <c r="L3" s="159"/>
+      <c r="M3" s="99" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="4" spans="2:13" ht="27" customHeight="1">
-      <c r="B4" s="167">
+      <c r="B4" s="160">
         <v>1</v>
       </c>
-      <c r="C4" s="167" t="s">
+      <c r="C4" s="160" t="s">
         <v>151</v>
       </c>
-      <c r="D4" s="168" t="s">
+      <c r="D4" s="161" t="s">
         <v>152</v>
       </c>
-      <c r="E4" s="168"/>
-      <c r="F4" s="168"/>
-      <c r="G4" s="168"/>
-      <c r="H4" s="168"/>
-      <c r="I4" s="168"/>
-      <c r="J4" s="168"/>
-      <c r="K4" s="168"/>
-      <c r="L4" s="168"/>
-      <c r="M4" s="168" t="s">
+      <c r="E4" s="161"/>
+      <c r="F4" s="161"/>
+      <c r="G4" s="161"/>
+      <c r="H4" s="161"/>
+      <c r="I4" s="161"/>
+      <c r="J4" s="161"/>
+      <c r="K4" s="161"/>
+      <c r="L4" s="161"/>
+      <c r="M4" s="161" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="5" spans="2:13" ht="27" customHeight="1">
-      <c r="B5" s="167"/>
-      <c r="C5" s="167"/>
-      <c r="D5" s="168" t="s">
+      <c r="B5" s="160"/>
+      <c r="C5" s="160"/>
+      <c r="D5" s="161" t="s">
         <v>154</v>
       </c>
-      <c r="E5" s="168"/>
-      <c r="F5" s="168"/>
-      <c r="G5" s="168"/>
-      <c r="H5" s="168"/>
-      <c r="I5" s="168"/>
-      <c r="J5" s="168"/>
-      <c r="K5" s="168"/>
-      <c r="L5" s="168"/>
-      <c r="M5" s="168"/>
+      <c r="E5" s="161"/>
+      <c r="F5" s="161"/>
+      <c r="G5" s="161"/>
+      <c r="H5" s="161"/>
+      <c r="I5" s="161"/>
+      <c r="J5" s="161"/>
+      <c r="K5" s="161"/>
+      <c r="L5" s="161"/>
+      <c r="M5" s="161"/>
     </row>
     <row r="6" spans="2:13" ht="27" customHeight="1">
-      <c r="B6" s="167"/>
-      <c r="C6" s="167"/>
-      <c r="D6" s="168" t="s">
+      <c r="B6" s="160"/>
+      <c r="C6" s="160"/>
+      <c r="D6" s="161" t="s">
         <v>155</v>
       </c>
-      <c r="E6" s="168"/>
-      <c r="F6" s="168"/>
-      <c r="G6" s="168"/>
-      <c r="H6" s="168"/>
-      <c r="I6" s="168"/>
-      <c r="J6" s="168"/>
-      <c r="K6" s="168"/>
-      <c r="L6" s="168"/>
-      <c r="M6" s="168"/>
+      <c r="E6" s="161"/>
+      <c r="F6" s="161"/>
+      <c r="G6" s="161"/>
+      <c r="H6" s="161"/>
+      <c r="I6" s="161"/>
+      <c r="J6" s="161"/>
+      <c r="K6" s="161"/>
+      <c r="L6" s="161"/>
+      <c r="M6" s="161"/>
     </row>
     <row r="7" spans="2:13" ht="27" customHeight="1">
-      <c r="B7" s="164">
+      <c r="B7" s="157">
         <v>2</v>
       </c>
-      <c r="C7" s="164" t="s">
+      <c r="C7" s="157" t="s">
         <v>156</v>
       </c>
-      <c r="D7" s="165" t="s">
+      <c r="D7" s="158" t="s">
         <v>157</v>
       </c>
-      <c r="E7" s="165"/>
-      <c r="F7" s="165"/>
-      <c r="G7" s="165"/>
-      <c r="H7" s="165"/>
-      <c r="I7" s="165"/>
-      <c r="J7" s="165"/>
-      <c r="K7" s="165"/>
-      <c r="L7" s="165"/>
-      <c r="M7" s="165" t="s">
+      <c r="E7" s="158"/>
+      <c r="F7" s="158"/>
+      <c r="G7" s="158"/>
+      <c r="H7" s="158"/>
+      <c r="I7" s="158"/>
+      <c r="J7" s="158"/>
+      <c r="K7" s="158"/>
+      <c r="L7" s="158"/>
+      <c r="M7" s="158" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="8" spans="2:13" ht="27" customHeight="1">
-      <c r="B8" s="164"/>
-      <c r="C8" s="164"/>
-      <c r="D8" s="165" t="s">
+      <c r="B8" s="157"/>
+      <c r="C8" s="157"/>
+      <c r="D8" s="158" t="s">
         <v>159</v>
       </c>
-      <c r="E8" s="165"/>
-      <c r="F8" s="165"/>
-      <c r="G8" s="165"/>
-      <c r="H8" s="165"/>
-      <c r="I8" s="165"/>
-      <c r="J8" s="165"/>
-      <c r="K8" s="165"/>
-      <c r="L8" s="165"/>
-      <c r="M8" s="165"/>
+      <c r="E8" s="158"/>
+      <c r="F8" s="158"/>
+      <c r="G8" s="158"/>
+      <c r="H8" s="158"/>
+      <c r="I8" s="158"/>
+      <c r="J8" s="158"/>
+      <c r="K8" s="158"/>
+      <c r="L8" s="158"/>
+      <c r="M8" s="158"/>
     </row>
     <row r="9" spans="2:13" ht="27" customHeight="1">
-      <c r="B9" s="164"/>
-      <c r="C9" s="164"/>
-      <c r="D9" s="165" t="s">
+      <c r="B9" s="157"/>
+      <c r="C9" s="157"/>
+      <c r="D9" s="158" t="s">
         <v>160</v>
       </c>
-      <c r="E9" s="165"/>
-      <c r="F9" s="165"/>
-      <c r="G9" s="165"/>
-      <c r="H9" s="165"/>
-      <c r="I9" s="165"/>
-      <c r="J9" s="165"/>
-      <c r="K9" s="165"/>
-      <c r="L9" s="165"/>
-      <c r="M9" s="165"/>
+      <c r="E9" s="158"/>
+      <c r="F9" s="158"/>
+      <c r="G9" s="158"/>
+      <c r="H9" s="158"/>
+      <c r="I9" s="158"/>
+      <c r="J9" s="158"/>
+      <c r="K9" s="158"/>
+      <c r="L9" s="158"/>
+      <c r="M9" s="158"/>
     </row>
     <row r="10" spans="2:13" ht="27" customHeight="1">
-      <c r="B10" s="164"/>
-      <c r="C10" s="164"/>
-      <c r="D10" s="165" t="s">
+      <c r="B10" s="157"/>
+      <c r="C10" s="157"/>
+      <c r="D10" s="158" t="s">
         <v>161</v>
       </c>
-      <c r="E10" s="165"/>
-      <c r="F10" s="165"/>
-      <c r="G10" s="165"/>
-      <c r="H10" s="165"/>
-      <c r="I10" s="165"/>
-      <c r="J10" s="165"/>
-      <c r="K10" s="165"/>
-      <c r="L10" s="165"/>
-      <c r="M10" s="165"/>
+      <c r="E10" s="158"/>
+      <c r="F10" s="158"/>
+      <c r="G10" s="158"/>
+      <c r="H10" s="158"/>
+      <c r="I10" s="158"/>
+      <c r="J10" s="158"/>
+      <c r="K10" s="158"/>
+      <c r="L10" s="158"/>
+      <c r="M10" s="158"/>
     </row>
     <row r="11" spans="2:13" ht="27" customHeight="1">
-      <c r="B11" s="162">
+      <c r="B11" s="155">
         <v>3</v>
       </c>
-      <c r="C11" s="162" t="s">
+      <c r="C11" s="155" t="s">
         <v>162</v>
       </c>
-      <c r="D11" s="163" t="s">
+      <c r="D11" s="156" t="s">
         <v>163</v>
       </c>
-      <c r="E11" s="163"/>
-      <c r="F11" s="163"/>
-      <c r="G11" s="163"/>
-      <c r="H11" s="163"/>
-      <c r="I11" s="163"/>
-      <c r="J11" s="163"/>
-      <c r="K11" s="163"/>
-      <c r="L11" s="163"/>
-      <c r="M11" s="163" t="s">
+      <c r="E11" s="156"/>
+      <c r="F11" s="156"/>
+      <c r="G11" s="156"/>
+      <c r="H11" s="156"/>
+      <c r="I11" s="156"/>
+      <c r="J11" s="156"/>
+      <c r="K11" s="156"/>
+      <c r="L11" s="156"/>
+      <c r="M11" s="156" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="27" customHeight="1">
-      <c r="B12" s="162"/>
-      <c r="C12" s="162"/>
-      <c r="D12" s="163" t="s">
+      <c r="B12" s="155"/>
+      <c r="C12" s="155"/>
+      <c r="D12" s="156" t="s">
         <v>165</v>
       </c>
-      <c r="E12" s="163"/>
-      <c r="F12" s="163"/>
-      <c r="G12" s="163"/>
-      <c r="H12" s="163"/>
-      <c r="I12" s="163"/>
-      <c r="J12" s="163"/>
-      <c r="K12" s="163"/>
-      <c r="L12" s="163"/>
-      <c r="M12" s="163"/>
+      <c r="E12" s="156"/>
+      <c r="F12" s="156"/>
+      <c r="G12" s="156"/>
+      <c r="H12" s="156"/>
+      <c r="I12" s="156"/>
+      <c r="J12" s="156"/>
+      <c r="K12" s="156"/>
+      <c r="L12" s="156"/>
+      <c r="M12" s="156"/>
     </row>
     <row r="13" spans="2:13" ht="27" customHeight="1">
-      <c r="B13" s="162"/>
-      <c r="C13" s="162"/>
-      <c r="D13" s="163" t="s">
+      <c r="B13" s="155"/>
+      <c r="C13" s="155"/>
+      <c r="D13" s="156" t="s">
         <v>166</v>
       </c>
-      <c r="E13" s="163"/>
-      <c r="F13" s="163"/>
-      <c r="G13" s="163"/>
-      <c r="H13" s="163"/>
-      <c r="I13" s="163"/>
-      <c r="J13" s="163"/>
-      <c r="K13" s="163"/>
-      <c r="L13" s="163"/>
-      <c r="M13" s="163"/>
+      <c r="E13" s="156"/>
+      <c r="F13" s="156"/>
+      <c r="G13" s="156"/>
+      <c r="H13" s="156"/>
+      <c r="I13" s="156"/>
+      <c r="J13" s="156"/>
+      <c r="K13" s="156"/>
+      <c r="L13" s="156"/>
+      <c r="M13" s="156"/>
     </row>
     <row r="14" spans="2:13" ht="27" customHeight="1">
-      <c r="B14" s="159">
+      <c r="B14" s="152">
         <v>4</v>
       </c>
-      <c r="C14" s="159" t="s">
+      <c r="C14" s="152" t="s">
         <v>167</v>
       </c>
-      <c r="D14" s="160" t="s">
+      <c r="D14" s="153" t="s">
         <v>168</v>
       </c>
-      <c r="E14" s="160"/>
-      <c r="F14" s="160"/>
-      <c r="G14" s="160"/>
-      <c r="H14" s="160"/>
-      <c r="I14" s="160"/>
-      <c r="J14" s="160"/>
-      <c r="K14" s="160"/>
-      <c r="L14" s="160"/>
-      <c r="M14" s="161" t="s">
+      <c r="E14" s="153"/>
+      <c r="F14" s="153"/>
+      <c r="G14" s="153"/>
+      <c r="H14" s="153"/>
+      <c r="I14" s="153"/>
+      <c r="J14" s="153"/>
+      <c r="K14" s="153"/>
+      <c r="L14" s="153"/>
+      <c r="M14" s="154" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="15" spans="2:13" ht="27" customHeight="1">
-      <c r="B15" s="159"/>
-      <c r="C15" s="159"/>
-      <c r="D15" s="160" t="s">
+      <c r="B15" s="152"/>
+      <c r="C15" s="152"/>
+      <c r="D15" s="153" t="s">
         <v>170</v>
       </c>
-      <c r="E15" s="160"/>
-      <c r="F15" s="160"/>
-      <c r="G15" s="160"/>
-      <c r="H15" s="160"/>
-      <c r="I15" s="160"/>
-      <c r="J15" s="160"/>
-      <c r="K15" s="160"/>
-      <c r="L15" s="160"/>
-      <c r="M15" s="161"/>
+      <c r="E15" s="153"/>
+      <c r="F15" s="153"/>
+      <c r="G15" s="153"/>
+      <c r="H15" s="153"/>
+      <c r="I15" s="153"/>
+      <c r="J15" s="153"/>
+      <c r="K15" s="153"/>
+      <c r="L15" s="153"/>
+      <c r="M15" s="154"/>
     </row>
     <row r="16" spans="2:13" ht="27" customHeight="1">
-      <c r="B16" s="159"/>
-      <c r="C16" s="159"/>
-      <c r="D16" s="160" t="s">
+      <c r="B16" s="152"/>
+      <c r="C16" s="152"/>
+      <c r="D16" s="153" t="s">
         <v>171</v>
       </c>
-      <c r="E16" s="160"/>
-      <c r="F16" s="160"/>
-      <c r="G16" s="160"/>
-      <c r="H16" s="160"/>
-      <c r="I16" s="160"/>
-      <c r="J16" s="160"/>
-      <c r="K16" s="160"/>
-      <c r="L16" s="160"/>
-      <c r="M16" s="161"/>
+      <c r="E16" s="153"/>
+      <c r="F16" s="153"/>
+      <c r="G16" s="153"/>
+      <c r="H16" s="153"/>
+      <c r="I16" s="153"/>
+      <c r="J16" s="153"/>
+      <c r="K16" s="153"/>
+      <c r="L16" s="153"/>
+      <c r="M16" s="154"/>
     </row>
     <row r="17" spans="2:13" ht="27" customHeight="1">
-      <c r="B17" s="157">
+      <c r="B17" s="150">
         <v>5</v>
       </c>
-      <c r="C17" s="157" t="s">
+      <c r="C17" s="150" t="s">
         <v>172</v>
       </c>
-      <c r="D17" s="158" t="s">
+      <c r="D17" s="151" t="s">
         <v>173</v>
       </c>
-      <c r="E17" s="158"/>
-      <c r="F17" s="158"/>
-      <c r="G17" s="158"/>
-      <c r="H17" s="158"/>
-      <c r="I17" s="158"/>
-      <c r="J17" s="158"/>
-      <c r="K17" s="158"/>
-      <c r="L17" s="158"/>
-      <c r="M17" s="158" t="s">
+      <c r="E17" s="151"/>
+      <c r="F17" s="151"/>
+      <c r="G17" s="151"/>
+      <c r="H17" s="151"/>
+      <c r="I17" s="151"/>
+      <c r="J17" s="151"/>
+      <c r="K17" s="151"/>
+      <c r="L17" s="151"/>
+      <c r="M17" s="151" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="18" spans="2:13" ht="27" customHeight="1">
-      <c r="B18" s="157"/>
-      <c r="C18" s="157"/>
-      <c r="D18" s="158" t="s">
+      <c r="B18" s="150"/>
+      <c r="C18" s="150"/>
+      <c r="D18" s="151" t="s">
         <v>175</v>
       </c>
-      <c r="E18" s="158"/>
-      <c r="F18" s="158"/>
-      <c r="G18" s="158"/>
-      <c r="H18" s="158"/>
-      <c r="I18" s="158"/>
-      <c r="J18" s="158"/>
-      <c r="K18" s="158"/>
-      <c r="L18" s="158"/>
-      <c r="M18" s="158"/>
+      <c r="E18" s="151"/>
+      <c r="F18" s="151"/>
+      <c r="G18" s="151"/>
+      <c r="H18" s="151"/>
+      <c r="I18" s="151"/>
+      <c r="J18" s="151"/>
+      <c r="K18" s="151"/>
+      <c r="L18" s="151"/>
+      <c r="M18" s="151"/>
     </row>
     <row r="19" spans="2:13" ht="27" customHeight="1">
-      <c r="B19" s="157"/>
-      <c r="C19" s="157"/>
-      <c r="D19" s="158" t="s">
+      <c r="B19" s="150"/>
+      <c r="C19" s="150"/>
+      <c r="D19" s="151" t="s">
         <v>176</v>
       </c>
-      <c r="E19" s="158"/>
-      <c r="F19" s="158"/>
-      <c r="G19" s="158"/>
-      <c r="H19" s="158"/>
-      <c r="I19" s="158"/>
-      <c r="J19" s="158"/>
-      <c r="K19" s="158"/>
-      <c r="L19" s="158"/>
-      <c r="M19" s="158"/>
+      <c r="E19" s="151"/>
+      <c r="F19" s="151"/>
+      <c r="G19" s="151"/>
+      <c r="H19" s="151"/>
+      <c r="I19" s="151"/>
+      <c r="J19" s="151"/>
+      <c r="K19" s="151"/>
+      <c r="L19" s="151"/>
+      <c r="M19" s="151"/>
     </row>
     <row r="20" spans="2:13" ht="27" customHeight="1">
-      <c r="B20" s="157"/>
-      <c r="C20" s="157"/>
-      <c r="D20" s="158" t="s">
+      <c r="B20" s="150"/>
+      <c r="C20" s="150"/>
+      <c r="D20" s="151" t="s">
         <v>177</v>
       </c>
-      <c r="E20" s="158"/>
-      <c r="F20" s="158"/>
-      <c r="G20" s="158"/>
-      <c r="H20" s="158"/>
-      <c r="I20" s="158"/>
-      <c r="J20" s="158"/>
-      <c r="K20" s="158"/>
-      <c r="L20" s="158"/>
-      <c r="M20" s="158"/>
+      <c r="E20" s="151"/>
+      <c r="F20" s="151"/>
+      <c r="G20" s="151"/>
+      <c r="H20" s="151"/>
+      <c r="I20" s="151"/>
+      <c r="J20" s="151"/>
+      <c r="K20" s="151"/>
+      <c r="L20" s="151"/>
+      <c r="M20" s="151"/>
     </row>
     <row r="21" spans="2:13" ht="27" customHeight="1">
-      <c r="B21" s="157"/>
-      <c r="C21" s="157"/>
-      <c r="D21" s="158" t="s">
+      <c r="B21" s="150"/>
+      <c r="C21" s="150"/>
+      <c r="D21" s="151" t="s">
         <v>178</v>
       </c>
-      <c r="E21" s="158"/>
-      <c r="F21" s="158"/>
-      <c r="G21" s="158"/>
-      <c r="H21" s="158"/>
-      <c r="I21" s="158"/>
-      <c r="J21" s="158"/>
-      <c r="K21" s="158"/>
-      <c r="L21" s="158"/>
-      <c r="M21" s="158"/>
+      <c r="E21" s="151"/>
+      <c r="F21" s="151"/>
+      <c r="G21" s="151"/>
+      <c r="H21" s="151"/>
+      <c r="I21" s="151"/>
+      <c r="J21" s="151"/>
+      <c r="K21" s="151"/>
+      <c r="L21" s="151"/>
+      <c r="M21" s="151"/>
     </row>
   </sheetData>
   <mergeCells count="35">
